--- a/biology/Zoologie/Aporrectodea/Aporrectodea.xlsx
+++ b/biology/Zoologie/Aporrectodea/Aporrectodea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aporrectodea est un genre de vers de terre de la famille des Lumbricidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aporrectodea a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aporrectodea a pour synonymes :
 Koinodrilus Qiu &amp; Bouché, 1998
 Nicodrilus Bouché, 1972</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (25 décembre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (25 décembre 2022) :
 Aporrectodea caliginosa (Savigny in Cuvier, 1826)
 Aporrectodea cupulifera (Tetry, 1937)
 Aporrectodea dubiosa (Örley, 1881)
@@ -607,9 +623,11 @@
           <t>Espèces de France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon INPN      (05 août 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon INPN      (05 août 2023) :
 Aporrectodea arverna (Bouché, 1969)
 Aporrectodea balisa (Bouché, 1972)
 Aporrectodea borellii (Cognetti, 1904)
